--- a/data/Subset1_WithDialogActs/Ribbons 1_Grade 4.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Ribbons 1_Grade 4.xlsx_with_dialog_acts.xlsx
@@ -769,12 +769,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -979,12 +979,12 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1021,12 +1021,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1231,12 +1231,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1399,12 +1399,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1567,12 +1567,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1777,12 +1777,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2239,12 +2239,12 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2407,12 +2407,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2449,12 +2449,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2533,12 +2533,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2827,12 +2827,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3377,12 +3377,12 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3461,12 +3461,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3755,12 +3755,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4045,12 +4045,12 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4251,12 +4251,12 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -4495,12 +4495,12 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5495,12 +5495,12 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6281,12 +6281,12 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6605,12 +6605,12 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6857,12 +6857,12 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7107,12 +7107,12 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7571,12 +7571,12 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7613,12 +7613,12 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7697,12 +7697,12 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -8033,12 +8033,12 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8075,12 +8075,12 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8285,12 +8285,12 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8327,12 +8327,12 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8411,12 +8411,12 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8495,12 +8495,12 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8537,12 +8537,12 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8663,12 +8663,12 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9121,12 +9121,12 @@
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9331,12 +9331,12 @@
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9625,12 +9625,12 @@
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9835,12 +9835,12 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10289,12 +10289,12 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10625,12 +10625,12 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10835,12 +10835,12 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10961,12 +10961,12 @@
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11087,12 +11087,12 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11339,12 +11339,12 @@
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11423,12 +11423,12 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11465,12 +11465,12 @@
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12309,12 +12309,12 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12897,12 +12897,12 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13861,12 +13861,12 @@
       <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14429,12 +14429,12 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14551,12 +14551,12 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14799,12 +14799,12 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14841,12 +14841,12 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16053,12 +16053,12 @@
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16259,12 +16259,12 @@
       <c r="H381" t="inlineStr"/>
       <c r="I381" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17553,12 +17553,12 @@
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17591,12 +17591,12 @@
       <c r="H414" t="inlineStr"/>
       <c r="I414" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17751,12 +17751,12 @@
       <c r="H418" t="inlineStr"/>
       <c r="I418" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -17873,12 +17873,12 @@
       <c r="H421" t="inlineStr"/>
       <c r="I421" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18585,12 +18585,12 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18623,12 +18623,12 @@
       <c r="H440" t="inlineStr"/>
       <c r="I440" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18661,12 +18661,12 @@
       <c r="H441" t="inlineStr"/>
       <c r="I441" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18863,12 +18863,12 @@
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18901,12 +18901,12 @@
       <c r="H447" t="inlineStr"/>
       <c r="I447" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18981,12 +18981,12 @@
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19377,12 +19377,12 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19419,12 +19419,12 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19861,12 +19861,12 @@
       <c r="H471" t="inlineStr"/>
       <c r="I471" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20055,12 +20055,12 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20249,12 +20249,12 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20649,12 +20649,12 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20765,12 +20765,12 @@
       <c r="H494" t="inlineStr"/>
       <c r="I494" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21627,12 +21627,12 @@
       <c r="H516" t="inlineStr"/>
       <c r="I516" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22065,12 +22065,12 @@
       </c>
       <c r="I527" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J527" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22143,12 +22143,12 @@
       <c r="H529" t="inlineStr"/>
       <c r="I529" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J529" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22417,12 +22417,12 @@
       </c>
       <c r="I536" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J536" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23239,12 +23239,12 @@
       <c r="H557" t="inlineStr"/>
       <c r="I557" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J557" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23393,12 +23393,12 @@
       <c r="H561" t="inlineStr"/>
       <c r="I561" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J561" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24171,12 +24171,12 @@
       <c r="H581" t="inlineStr"/>
       <c r="I581" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J581" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -24913,12 +24913,12 @@
       </c>
       <c r="I600" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J600" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24951,12 +24951,12 @@
       <c r="H601" t="inlineStr"/>
       <c r="I601" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J601" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -25263,12 +25263,12 @@
       <c r="H609" t="inlineStr"/>
       <c r="I609" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J609" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -25461,12 +25461,12 @@
       <c r="H614" t="inlineStr"/>
       <c r="I614" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J614" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25965,12 +25965,12 @@
       </c>
       <c r="I627" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J627" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26363,12 +26363,12 @@
       </c>
       <c r="I637" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J637" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26401,12 +26401,12 @@
       <c r="H638" t="inlineStr"/>
       <c r="I638" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J638" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27237,12 +27237,12 @@
       <c r="H659" t="inlineStr"/>
       <c r="I659" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J659" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27357,12 +27357,12 @@
       <c r="H662" t="inlineStr"/>
       <c r="I662" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J662" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27517,12 +27517,12 @@
       <c r="H666" t="inlineStr"/>
       <c r="I666" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J666" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27881,12 +27881,12 @@
       <c r="H675" t="inlineStr"/>
       <c r="I675" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J675" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27921,12 +27921,12 @@
       </c>
       <c r="I676" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J676" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28161,12 +28161,12 @@
       <c r="H682" t="inlineStr"/>
       <c r="I682" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J682" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28441,12 +28441,12 @@
       <c r="H689" t="inlineStr"/>
       <c r="I689" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J689" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28563,12 +28563,12 @@
       <c r="H692" t="inlineStr"/>
       <c r="I692" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J692" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -29037,12 +29037,12 @@
       <c r="H704" t="inlineStr"/>
       <c r="I704" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J704" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29235,12 +29235,12 @@
       <c r="H709" t="inlineStr"/>
       <c r="I709" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J709" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29275,12 +29275,12 @@
       <c r="H710" t="inlineStr"/>
       <c r="I710" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J710" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29959,12 +29959,12 @@
       <c r="H727" t="inlineStr"/>
       <c r="I727" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J727" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30003,12 +30003,12 @@
       </c>
       <c r="I728" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J728" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -30043,12 +30043,12 @@
       <c r="H729" t="inlineStr"/>
       <c r="I729" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J729" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -30203,12 +30203,12 @@
       <c r="H733" t="inlineStr"/>
       <c r="I733" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J733" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -30283,12 +30283,12 @@
       <c r="H735" t="inlineStr"/>
       <c r="I735" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J735" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30367,12 +30367,12 @@
       </c>
       <c r="I737" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J737" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -30447,12 +30447,12 @@
       <c r="H739" t="inlineStr"/>
       <c r="I739" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J739" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -30567,12 +30567,12 @@
       <c r="H742" t="inlineStr"/>
       <c r="I742" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J742" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30647,12 +30647,12 @@
       <c r="H744" t="inlineStr"/>
       <c r="I744" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J744" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -30687,12 +30687,12 @@
       <c r="H745" t="inlineStr"/>
       <c r="I745" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J745" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -30927,12 +30927,12 @@
       <c r="H751" t="inlineStr"/>
       <c r="I751" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J751" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -31051,12 +31051,12 @@
       <c r="H754" t="inlineStr"/>
       <c r="I754" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J754" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -31131,12 +31131,12 @@
       <c r="H756" t="inlineStr"/>
       <c r="I756" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J756" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -31211,12 +31211,12 @@
       <c r="H758" t="inlineStr"/>
       <c r="I758" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J758" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -31371,12 +31371,12 @@
       </c>
       <c r="I762" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J762" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -32413,12 +32413,12 @@
       <c r="H788" t="inlineStr"/>
       <c r="I788" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J788" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -32959,12 +32959,12 @@
       </c>
       <c r="I801" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J801" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -33127,12 +33127,12 @@
       <c r="H805" t="inlineStr"/>
       <c r="I805" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J805" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -33207,12 +33207,12 @@
       <c r="H807" t="inlineStr"/>
       <c r="I807" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J807" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -33333,12 +33333,12 @@
       <c r="H810" t="inlineStr"/>
       <c r="I810" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J810" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -33505,12 +33505,12 @@
       <c r="H814" t="inlineStr"/>
       <c r="I814" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J814" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -33547,12 +33547,12 @@
       <c r="H815" t="inlineStr"/>
       <c r="I815" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J815" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -33589,12 +33589,12 @@
       </c>
       <c r="I816" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J816" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -33673,12 +33673,12 @@
       <c r="H818" t="inlineStr"/>
       <c r="I818" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J818" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -33967,12 +33967,12 @@
       <c r="H825" t="inlineStr"/>
       <c r="I825" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J825" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34051,12 +34051,12 @@
       <c r="H827" t="inlineStr"/>
       <c r="I827" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J827" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -34429,12 +34429,12 @@
       <c r="H836" t="inlineStr"/>
       <c r="I836" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J836" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -34559,12 +34559,12 @@
       </c>
       <c r="I839" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J839" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -34895,12 +34895,12 @@
       </c>
       <c r="I847" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J847" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -35357,12 +35357,12 @@
       <c r="H858" t="inlineStr"/>
       <c r="I858" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J858" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -35945,12 +35945,12 @@
       <c r="H872" t="inlineStr"/>
       <c r="I872" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J872" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -36495,12 +36495,12 @@
       <c r="H885" t="inlineStr"/>
       <c r="I885" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J885" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -36739,12 +36739,12 @@
       <c r="H891" t="inlineStr"/>
       <c r="I891" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J891" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -37331,12 +37331,12 @@
       <c r="H905" t="inlineStr"/>
       <c r="I905" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J905" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -38221,12 +38221,12 @@
       <c r="H926" t="inlineStr"/>
       <c r="I926" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J926" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -38263,12 +38263,12 @@
       <c r="H927" t="inlineStr"/>
       <c r="I927" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J927" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -38641,12 +38641,12 @@
       <c r="H936" t="inlineStr"/>
       <c r="I936" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J936" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -38809,12 +38809,12 @@
       <c r="H940" t="inlineStr"/>
       <c r="I940" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J940" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -39229,12 +39229,12 @@
       </c>
       <c r="I950" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J950" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -39313,12 +39313,12 @@
       </c>
       <c r="I952" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J952" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -39397,12 +39397,12 @@
       <c r="H954" t="inlineStr"/>
       <c r="I954" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J954" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -39443,12 +39443,12 @@
       </c>
       <c r="I955" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J955" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -39611,12 +39611,12 @@
       <c r="H959" t="inlineStr"/>
       <c r="I959" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J959" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -40077,12 +40077,12 @@
       <c r="H970" t="inlineStr"/>
       <c r="I970" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J970" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
